--- a/public/assets/excels/big5.xlsx
+++ b/public/assets/excels/big5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurul\example-app\storage\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurul\fyp2\public\assets\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD6E067-DD9D-4C5C-958E-E9DA27AF53DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D8EB11-E226-40A9-B3E5-B4C41DB6CF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9696" yWindow="3276" windowWidth="13344" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Extraversion" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
   <si>
     <t>Openness</t>
   </si>
@@ -125,9 +125,6 @@
     <t>anxious</t>
   </si>
   <si>
-    <t>touchy</t>
-  </si>
-  <si>
     <t>depressed</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>reserved</t>
   </si>
   <si>
-    <t>fun-loving</t>
-  </si>
-  <si>
     <t>affectionate</t>
   </si>
   <si>
@@ -326,9 +320,6 @@
     <t xml:space="preserve">challenge </t>
   </si>
   <si>
-    <t>schedule</t>
-  </si>
-  <si>
     <t>on time</t>
   </si>
   <si>
@@ -350,9 +341,6 @@
     <t xml:space="preserve">less interest </t>
   </si>
   <si>
-    <t xml:space="preserve">doesn’t care </t>
-  </si>
-  <si>
     <t>emotionally stable</t>
   </si>
   <si>
@@ -371,9 +359,6 @@
     <t>passive</t>
   </si>
   <si>
-    <t>joiner</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
@@ -438,6 +423,96 @@
   </si>
   <si>
     <t>easily distracted</t>
+  </si>
+  <si>
+    <t>observant</t>
+  </si>
+  <si>
+    <t>deceit</t>
+  </si>
+  <si>
+    <t>manipulate</t>
+  </si>
+  <si>
+    <t>callous</t>
+  </si>
+  <si>
+    <t>heartless</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>fearless</t>
+  </si>
+  <si>
+    <t>shameless</t>
+  </si>
+  <si>
+    <t>loud</t>
+  </si>
+  <si>
+    <t>persuasive</t>
+  </si>
+  <si>
+    <t>withdrawn</t>
+  </si>
+  <si>
+    <t>hostile</t>
+  </si>
+  <si>
+    <t>hardy</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>self-confident</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antisocial </t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfectionist </t>
+  </si>
+  <si>
+    <t>ambitious</t>
+  </si>
+  <si>
+    <t>easy-going</t>
+  </si>
+  <si>
+    <t>spontaneous</t>
+  </si>
+  <si>
+    <t>flexible</t>
+  </si>
+  <si>
+    <t>dissatisfied</t>
+  </si>
+  <si>
+    <t>distrust</t>
+  </si>
+  <si>
+    <t>irresponsible</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>clueless</t>
   </si>
 </sst>
 </file>
@@ -522,19 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -579,12 +641,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -592,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -609,18 +682,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,7 +1014,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,114 +1028,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>105</v>
+      <c r="B10" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>113</v>
+      <c r="A11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>114</v>
+      <c r="A12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>104</v>
+      <c r="A13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>115</v>
+      <c r="A14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>116</v>
+      <c r="A15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1065,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,7 +1173,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1090,7 +1184,7 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1101,7 +1195,7 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1112,7 +1206,7 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1123,7 +1217,7 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1134,7 +1228,7 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1145,7 +1239,7 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1156,69 +1250,81 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>108</v>
+      <c r="B9" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="B12" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>130</v>
+      <c r="A16" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1339,9 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1243,7 +1351,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1291,77 +1399,98 @@
     </row>
     <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1374,10 +1503,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,107 +1525,146 @@
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>125</v>
+      <c r="B8" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>137</v>
+      <c r="B11" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>100</v>
+      <c r="A12" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>101</v>
+      <c r="A13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>123</v>
+      <c r="A14" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>124</v>
+      <c r="A15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>135</v>
+      <c r="A16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1511,8 +1679,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1531,106 +1699,106 @@
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>133</v>
+      <c r="B14" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
